--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1796.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1796.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.164791289011408</v>
+        <v>0.7154039144515991</v>
       </c>
       <c r="B1">
-        <v>2.292692526503328</v>
+        <v>1.489919304847717</v>
       </c>
       <c r="C1">
-        <v>4.788165929755047</v>
+        <v>4.086187839508057</v>
       </c>
       <c r="D1">
-        <v>2.716627663643676</v>
+        <v>2.648882389068604</v>
       </c>
       <c r="E1">
-        <v>1.132505372178215</v>
+        <v>0.8133031725883484</v>
       </c>
     </row>
   </sheetData>
